--- a/Assignment3/CompressionResults.xlsx
+++ b/Assignment3/CompressionResults.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhrydil/Desktop/CurrentClassesLocal/CS1501/CS1501-Assignments/Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{434884D2-0C72-3449-9706-C23A4BAF6236}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BD0E5-7881-9E47-83F9-09B3DC365F22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="460" windowWidth="24860" windowHeight="20540" xr2:uid="{E6B10C25-E466-8242-B42A-DC14DF1F8046}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="33320" windowHeight="20540" xr2:uid="{E6B10C25-E466-8242-B42A-DC14DF1F8046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,10 +112,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -161,13 +157,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -185,33 +208,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -245,26 +241,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D04E984-9874-F045-A51F-3A5119896658}" name="Table1" displayName="Table1" ref="B2:K16" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D04E984-9874-F045-A51F-3A5119896658}" name="Table1" displayName="Table1" ref="B2:K16" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B2:K16" xr:uid="{EBE0CAED-E985-6E45-A6FD-8363D5671431}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D890BBDB-102C-9C40-BAD7-5C53FF91C427}" name="Column1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6ECF9DE6-F68F-AF44-9447-53A1C943F670}" name="Original" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C444FC08-D9F8-A149-A999-CA1EAC2F77B1}" name="LZW" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{AA3F975C-8CE3-4B41-882C-80085F9B17A0}" name="LZW C.R." dataDxfId="7">
-      <calculatedColumnFormula>D3/C3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{D890BBDB-102C-9C40-BAD7-5C53FF91C427}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6ECF9DE6-F68F-AF44-9447-53A1C943F670}" name="Original" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C444FC08-D9F8-A149-A999-CA1EAC2F77B1}" name="LZW" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AA3F975C-8CE3-4B41-882C-80085F9B17A0}" name="LZW C.R." dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CABBFB55-AA03-084B-956E-59B48480BE7E}" name="LZWmod (no reset)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{293DFD7E-0BE8-0D43-B703-FE78177D6C22}" name="LZWmod C.R." dataDxfId="5">
-      <calculatedColumnFormula>F3/C3</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{CABBFB55-AA03-084B-956E-59B48480BE7E}" name="LZWmod (no reset)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{293DFD7E-0BE8-0D43-B703-FE78177D6C22}" name="LZWmod C.R." dataDxfId="3">
+      <calculatedColumnFormula>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{651F0A88-8CF9-C240-B4E3-D601CAD8078D}" name="LZWmod (with reset)" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5AFCABA5-B075-7649-B487-F70B6B616087}" name="LZWmod(R) C.R." dataDxfId="3">
-      <calculatedColumnFormula>H3/C3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{5AFCABA5-B075-7649-B487-F70B6B616087}" name="LZWmod(R) C.R." dataDxfId="5">
+      <calculatedColumnFormula>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4B579B2C-6233-2F45-B2CB-EDB72D4E4488}" name="Unix Compress" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{314FE5AD-0A47-B440-96FC-3F02E206DF44}" name="Unix C.R." dataDxfId="1">
-      <calculatedColumnFormula>J3/C3</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{4B579B2C-6233-2F45-B2CB-EDB72D4E4488}" name="Unix Compress" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{314FE5AD-0A47-B440-96FC-3F02E206DF44}" name="Unix C.R." dataDxfId="7">
+      <calculatedColumnFormula>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -571,7 +567,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="K16" sqref="B2:K16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,29 +641,29 @@
         <v>128973</v>
       </c>
       <c r="E3" s="5">
-        <f>D3/C3</f>
-        <v>1.3812961197802316</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>0.7239577275863941</v>
       </c>
       <c r="F3" s="1">
         <v>122493</v>
       </c>
       <c r="G3" s="5">
-        <f>F3/C3</f>
-        <v>1.3118955564361525</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>0.76225580237238044</v>
       </c>
       <c r="H3" s="1">
         <v>122493</v>
       </c>
       <c r="I3" s="6">
-        <f>H3/C3</f>
-        <v>1.3118955564361525</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>0.76225580237238044</v>
       </c>
       <c r="J3" s="1">
         <v>93213</v>
       </c>
       <c r="K3" s="5">
-        <f>J3/C3</f>
-        <v>0.99830782577031407</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>1.0016950425369853</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -682,29 +678,29 @@
         <v>1846854</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E16" si="0">D4/C4</f>
-        <v>0.60931363492398649</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>1.6411909116800787</v>
       </c>
       <c r="F4" s="1">
-        <v>1792783</v>
+        <v>1792781</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G16" si="1">F4/C4</f>
-        <v>0.59147454339104732</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>1.6906917241983266</v>
       </c>
       <c r="H4" s="1">
-        <v>1249015</v>
+        <v>1177887</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I16" si="2">H4/C4</f>
-        <v>0.41207473342483109</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>2.573285892449785</v>
       </c>
       <c r="J4" s="1">
         <v>1179467</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K16" si="3">J4/C4</f>
-        <v>0.38912947371199325</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>2.5698387491977308</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -719,29 +715,29 @@
         <v>74574</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.85677849264705885</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>1.1671628181403706</v>
       </c>
       <c r="F5" s="1">
         <v>40040</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.46001838235294118</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>2.1738261738261739</v>
       </c>
       <c r="H5" s="2">
         <v>40040</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="2"/>
-        <v>0.46001838235294118</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>2.1738261738261739</v>
       </c>
       <c r="J5" s="1">
         <v>40040</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="3"/>
-        <v>0.46001838235294118</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>2.1738261738261739</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -756,29 +752,29 @@
         <v>925079</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.83647913049768519</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>1.1954870881297706</v>
       </c>
       <c r="F6" s="1">
         <v>80913</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="1"/>
-        <v>7.3163519965277785E-2</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>13.668013792592044</v>
       </c>
       <c r="H6" s="1">
         <v>80913</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="2"/>
-        <v>7.3163519965277785E-2</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>13.668013792592044</v>
       </c>
       <c r="J6" s="1">
         <v>80913</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="3"/>
-        <v>7.3163519965277785E-2</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>13.668013792592044</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -793,29 +789,29 @@
         <v>30980</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.42819034982239362</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>2.3354099418979986</v>
       </c>
       <c r="F7" s="1">
         <v>24544</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.33923511769014941</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>2.9478080182529336</v>
       </c>
       <c r="H7" s="1">
         <v>24544</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="2"/>
-        <v>0.33923511769014941</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>2.9478080182529336</v>
       </c>
       <c r="J7" s="1">
         <v>24545</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="3"/>
-        <v>0.33924893919918175</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>2.9476879201466692</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -830,29 +826,29 @@
         <v>24138</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.41832897176825357</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>2.3904631701052281</v>
       </c>
       <c r="F8" s="1">
         <v>20516</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.355557096064193</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>2.8124878143887697</v>
       </c>
       <c r="H8" s="1">
         <v>20516</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.355557096064193</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>2.8124878143887697</v>
       </c>
       <c r="J8" s="1">
         <v>20516</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="3"/>
-        <v>0.355557096064193</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>2.8124878143887697</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -867,29 +863,29 @@
         <v>250742</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0609915033343489</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>0.94251461661787816</v>
       </c>
       <c r="F9" s="1">
-        <v>156411</v>
+        <v>156409</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.66183863105514373</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>1.5109616454296109</v>
       </c>
       <c r="H9" s="1">
-        <v>158297</v>
+        <v>152231</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="2"/>
-        <v>0.66981906502826583</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>1.5524301883322056</v>
       </c>
       <c r="J9" s="1">
         <v>151111</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.63941217291222374</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>1.5639364440709147</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -904,28 +900,28 @@
         <v>177453</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>1.4000457600908891</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>0.71426236806365628</v>
       </c>
       <c r="F10" s="1">
         <v>163789</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2922412976930602</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>0.7738492816977941</v>
       </c>
       <c r="H10" s="1">
-        <v>178499</v>
+        <v>171170</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4082983557925963</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>0.74048022433837701</v>
       </c>
       <c r="J10" s="1">
         <v>126748</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="3"/>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
         <v>1</v>
       </c>
     </row>
@@ -941,29 +937,29 @@
         <v>9278</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.53518689432395017</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>1.8685061435654235</v>
       </c>
       <c r="F11" s="1">
         <v>8963</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.51701661282879552</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>1.9341738257279928</v>
       </c>
       <c r="H11" s="1">
         <v>8963</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="2"/>
-        <v>0.51701661282879552</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>1.9341738257279928</v>
       </c>
       <c r="J11" s="1">
         <v>8964</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="3"/>
-        <v>0.51707429626211354</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>1.9339580544399821</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -978,29 +974,29 @@
         <v>605184</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.49576678356651865</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>2.017077450824873</v>
       </c>
       <c r="F12" s="1">
-        <v>501779</v>
+        <v>501777</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.41105739889227766</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>2.4327599710628425</v>
       </c>
       <c r="H12" s="1">
-        <v>556867</v>
+        <v>527598</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="2"/>
-        <v>0.45618549311339451</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>2.3136990663345958</v>
       </c>
       <c r="J12" s="1">
         <v>522673</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.42817376544499358</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>2.3355003989109826</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1015,29 +1011,29 @@
         <v>13197</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.51942378084779783</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>1.9252102750625142</v>
       </c>
       <c r="F13" s="1">
         <v>12531</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.49321053253040503</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>2.027531721331099</v>
       </c>
       <c r="H13" s="1">
         <v>12531</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="2"/>
-        <v>0.49321053253040503</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>2.027531721331099</v>
       </c>
       <c r="J13" s="1">
         <v>12531</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.49321053253040503</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>2.027531721331099</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1052,29 +1048,29 @@
         <v>1012179</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.73218967013888892</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>1.3657663318444662</v>
       </c>
       <c r="F14" s="1">
-        <v>597849</v>
+        <v>597847</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.43247178819444443</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>2.3122972934546797</v>
       </c>
       <c r="H14" s="1">
-        <v>622157</v>
+        <v>590545</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="2"/>
-        <v>0.4500557002314815</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>2.3408885012996468</v>
       </c>
       <c r="J14" s="1">
         <v>589697</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="3"/>
-        <v>0.42657479745370369</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>2.3442547613435374</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1089,29 +1085,29 @@
         <v>4302</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>4.6676952522313143E-3</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>214.23849372384936</v>
       </c>
       <c r="F15" s="1">
         <v>3951</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2868581919028185E-3</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>233.27107061503418</v>
       </c>
       <c r="H15" s="1">
         <v>3951</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="2"/>
-        <v>4.2868581919028185E-3</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>233.27107061503418</v>
       </c>
       <c r="J15" s="1">
         <v>3952</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="3"/>
-        <v>4.2879431977726999E-3</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>233.21204453441297</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1126,29 +1122,29 @@
         <v>159050</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0127734902320369</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZW]]</f>
+        <v>0.98738761395787489</v>
       </c>
       <c r="F16" s="1">
         <v>62931</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.40072209062428366</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (no reset)]]</f>
+        <v>2.4954950660246937</v>
       </c>
       <c r="H16" s="1">
         <v>62931</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.40072209062428366</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[LZWmod (with reset)]]</f>
+        <v>2.4954950660246937</v>
       </c>
       <c r="J16" s="1">
         <v>62931</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.40072209062428366</v>
+        <f>Table1[[#This Row],[Original]]/Table1[[#This Row],[Unix Compress]]</f>
+        <v>2.4954950660246937</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment3/CompressionResults.xlsx
+++ b/Assignment3/CompressionResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhrydil/Desktop/CurrentClassesLocal/CS1501/CS1501-Assignments/Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BD0E5-7881-9E47-83F9-09B3DC365F22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9A109-11AB-E348-85FD-F4779633CB23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="33320" windowHeight="20540" xr2:uid="{E6B10C25-E466-8242-B42A-DC14DF1F8046}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A6086E-FFE6-7A4E-BD3E-8058E061F7E9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="K16" sqref="B2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,6 +1153,7 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
